--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nodal</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Nodal</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H2">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I2">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J2">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>9.460955862423335</v>
+        <v>7.718673745378667</v>
       </c>
       <c r="R2">
-        <v>85.14860276181001</v>
+        <v>69.468063708408</v>
       </c>
       <c r="S2">
-        <v>0.08790135405439017</v>
+        <v>0.1182311056794766</v>
       </c>
       <c r="T2">
-        <v>0.08790135405439017</v>
+        <v>0.1182311056794766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H3">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I3">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J3">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>23.60791582510733</v>
+        <v>18.02168199840289</v>
       </c>
       <c r="R3">
-        <v>212.471242425966</v>
+        <v>162.195137985626</v>
       </c>
       <c r="S3">
-        <v>0.2193401805911677</v>
+        <v>0.2760478625166405</v>
       </c>
       <c r="T3">
-        <v>0.2193401805911677</v>
+        <v>0.2760478625166405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H4">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I4">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J4">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>5.134088064182001</v>
+        <v>5.734997285897666</v>
       </c>
       <c r="R4">
-        <v>46.20679257763801</v>
+        <v>51.61497557307899</v>
       </c>
       <c r="S4">
-        <v>0.0477006022687951</v>
+        <v>0.08784605912206669</v>
       </c>
       <c r="T4">
-        <v>0.04770060226879509</v>
+        <v>0.08784605912206669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H5">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I5">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J5">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>14.736594671224</v>
+        <v>3.635887705681445</v>
       </c>
       <c r="R5">
-        <v>132.629352041016</v>
+        <v>32.722989351133</v>
       </c>
       <c r="S5">
-        <v>0.1369170985033541</v>
+        <v>0.05569286094343705</v>
       </c>
       <c r="T5">
-        <v>0.136917098503354</v>
+        <v>0.05569286094343705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H6">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I6">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J6">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>3.416873228931667</v>
+        <v>2.710509126197222</v>
       </c>
       <c r="R6">
-        <v>30.751859060385</v>
+        <v>24.394582135775</v>
       </c>
       <c r="S6">
-        <v>0.0317460294522882</v>
+        <v>0.04151833611784402</v>
       </c>
       <c r="T6">
-        <v>0.03174602945228819</v>
+        <v>0.04151833611784402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H7">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I7">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J7">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>5.218043567703335</v>
+        <v>2.957086607895445</v>
       </c>
       <c r="R7">
-        <v>46.96239210933001</v>
+        <v>26.613779471059</v>
       </c>
       <c r="S7">
-        <v>0.04848062941902779</v>
+        <v>0.04529529693501761</v>
       </c>
       <c r="T7">
-        <v>0.04848062941902779</v>
+        <v>0.0452952969350176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.390398</v>
       </c>
       <c r="I8">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J8">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>1.418737997615556</v>
+        <v>1.516254819994667</v>
       </c>
       <c r="R8">
-        <v>12.76864197854</v>
+        <v>13.646293379952</v>
       </c>
       <c r="S8">
-        <v>0.01318143672291465</v>
+        <v>0.02322529618085452</v>
       </c>
       <c r="T8">
-        <v>0.01318143672291465</v>
+        <v>0.02322529618085451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.390398</v>
       </c>
       <c r="I9">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J9">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
         <v>3.540175825004889</v>
@@ -1013,10 +1013,10 @@
         <v>31.861582425044</v>
       </c>
       <c r="S9">
-        <v>0.0328916288304975</v>
+        <v>0.05422679023591083</v>
       </c>
       <c r="T9">
-        <v>0.0328916288304975</v>
+        <v>0.05422679023591084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.390398</v>
       </c>
       <c r="I10">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J10">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>0.7698932249213335</v>
+        <v>1.126581789080667</v>
       </c>
       <c r="R10">
-        <v>6.929039024292001</v>
+        <v>10.139236101726</v>
       </c>
       <c r="S10">
-        <v>0.007153046471411417</v>
+        <v>0.01725646334528881</v>
       </c>
       <c r="T10">
-        <v>0.007153046471411417</v>
+        <v>0.01725646334528881</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.390398</v>
       </c>
       <c r="I11">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J11">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>2.209857769082667</v>
+        <v>0.7142330976224445</v>
       </c>
       <c r="R11">
-        <v>19.888719921744</v>
+        <v>6.428097878602001</v>
       </c>
       <c r="S11">
-        <v>0.0205316981703184</v>
+        <v>0.0109402951375342</v>
       </c>
       <c r="T11">
-        <v>0.0205316981703184</v>
+        <v>0.0109402951375342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.390398</v>
       </c>
       <c r="I12">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J12">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>0.5123845786211111</v>
+        <v>0.5324519033722223</v>
       </c>
       <c r="R12">
-        <v>4.61146120759</v>
+        <v>4.79206713035</v>
       </c>
       <c r="S12">
-        <v>0.004760544168297961</v>
+        <v>0.008155854144571218</v>
       </c>
       <c r="T12">
-        <v>0.004760544168297961</v>
+        <v>0.00815585414457122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.390398</v>
       </c>
       <c r="I13">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J13">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>0.7824829531355557</v>
+        <v>0.5808895375384445</v>
       </c>
       <c r="R13">
-        <v>7.042346578220001</v>
+        <v>5.228005837846</v>
       </c>
       <c r="S13">
-        <v>0.007270017121449249</v>
+        <v>0.008897799617703728</v>
       </c>
       <c r="T13">
-        <v>0.007270017121449249</v>
+        <v>0.008897799617703726</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H14">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I14">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J14">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N14">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q14">
-        <v>0.6482219500322222</v>
+        <v>1.995559250552</v>
       </c>
       <c r="R14">
-        <v>5.83399755029</v>
+        <v>17.960033254968</v>
       </c>
       <c r="S14">
-        <v>0.006022603631618127</v>
+        <v>0.03056706170317552</v>
       </c>
       <c r="T14">
-        <v>0.006022603631618128</v>
+        <v>0.03056706170317552</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H15">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I15">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J15">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q15">
-        <v>1.617507729121555</v>
+        <v>4.659263418660666</v>
       </c>
       <c r="R15">
-        <v>14.557569562094</v>
+        <v>41.933370767946</v>
       </c>
       <c r="S15">
-        <v>0.01502819817053962</v>
+        <v>0.07136846093151768</v>
       </c>
       <c r="T15">
-        <v>0.01502819817053963</v>
+        <v>0.07136846093151768</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H16">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I16">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J16">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N16">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O16">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P16">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q16">
-        <v>0.3517645177713334</v>
+        <v>1.482706390151</v>
       </c>
       <c r="R16">
-        <v>3.165880659942001</v>
+        <v>13.344357511359</v>
       </c>
       <c r="S16">
-        <v>0.003268229750780149</v>
+        <v>0.02271141671333565</v>
       </c>
       <c r="T16">
-        <v>0.003268229750780149</v>
+        <v>0.02271141671333565</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H17">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I17">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J17">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N17">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q17">
-        <v>1.009684885282667</v>
+        <v>0.9400098494103334</v>
       </c>
       <c r="R17">
-        <v>9.087163967543999</v>
+        <v>8.460088644693</v>
       </c>
       <c r="S17">
-        <v>0.009380940982623385</v>
+        <v>0.01439863991037617</v>
       </c>
       <c r="T17">
-        <v>0.009380940982623385</v>
+        <v>0.01439863991037617</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H18">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I18">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J18">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N18">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O18">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P18">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q18">
-        <v>0.2341087158294444</v>
+        <v>0.7007656676416667</v>
       </c>
       <c r="R18">
-        <v>2.106978442465</v>
+        <v>6.306891008775001</v>
       </c>
       <c r="S18">
-        <v>0.002175094505944733</v>
+        <v>0.01073400721945221</v>
       </c>
       <c r="T18">
-        <v>0.002175094505944733</v>
+        <v>0.01073400721945221</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H19">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I19">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J19">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N19">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q19">
-        <v>0.3575167695522223</v>
+        <v>0.7645149581043333</v>
       </c>
       <c r="R19">
-        <v>3.217650925970001</v>
+        <v>6.880634622939001</v>
       </c>
       <c r="S19">
-        <v>0.003321673686863833</v>
+        <v>0.01171048962385437</v>
       </c>
       <c r="T19">
-        <v>0.003321673686863833</v>
+        <v>0.01171048962385437</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H20">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I20">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J20">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N20">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q20">
-        <v>4.308166816411111</v>
+        <v>0.7497887425386668</v>
       </c>
       <c r="R20">
-        <v>38.7735013477</v>
+        <v>6.748098682848</v>
       </c>
       <c r="S20">
-        <v>0.04002700172810332</v>
+        <v>0.01148492020529389</v>
       </c>
       <c r="T20">
-        <v>0.04002700172810332</v>
+        <v>0.01148492020529389</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H21">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I21">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J21">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>81.613078</v>
       </c>
       <c r="O21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q21">
-        <v>10.75016531535778</v>
+        <v>1.750618659339556</v>
       </c>
       <c r="R21">
-        <v>96.75148783822</v>
+        <v>15.755567934056</v>
       </c>
       <c r="S21">
-        <v>0.09987934636516188</v>
+        <v>0.02681517402400386</v>
       </c>
       <c r="T21">
-        <v>0.09987934636516188</v>
+        <v>0.02681517402400386</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H22">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I22">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J22">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N22">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O22">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P22">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q22">
-        <v>2.337872425606667</v>
+        <v>0.5570952401026666</v>
       </c>
       <c r="R22">
-        <v>21.04085183046</v>
+        <v>5.013857160923999</v>
       </c>
       <c r="S22">
-        <v>0.02172107710949728</v>
+        <v>0.008533329478467347</v>
       </c>
       <c r="T22">
-        <v>0.02172107710949728</v>
+        <v>0.008533329478467348</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H23">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I23">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J23">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N23">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q23">
-        <v>6.710496177413333</v>
+        <v>0.3531886125497778</v>
       </c>
       <c r="R23">
-        <v>60.39446559672</v>
+        <v>3.178697512948</v>
       </c>
       <c r="S23">
-        <v>0.06234694558868324</v>
+        <v>0.005409981241940923</v>
       </c>
       <c r="T23">
-        <v>0.06234694558868323</v>
+        <v>0.005409981241940924</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H24">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I24">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J24">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N24">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O24">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P24">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q24">
-        <v>1.555916767272222</v>
+        <v>0.2632977239888889</v>
       </c>
       <c r="R24">
-        <v>14.00325090545</v>
+        <v>2.3696795159</v>
       </c>
       <c r="S24">
-        <v>0.0144559590624838</v>
+        <v>0.004033073822913444</v>
       </c>
       <c r="T24">
-        <v>0.0144559590624838</v>
+        <v>0.004033073822913445</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H25">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I25">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J25">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N25">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q25">
-        <v>2.376102634011112</v>
+        <v>0.2872501575337778</v>
       </c>
       <c r="R25">
-        <v>21.3849237061</v>
+        <v>2.585251417804</v>
       </c>
       <c r="S25">
-        <v>0.02207627241252996</v>
+        <v>0.004399966218569101</v>
       </c>
       <c r="T25">
-        <v>0.02207627241252996</v>
+        <v>0.0043999662185691</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H26">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I26">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J26">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N26">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q26">
-        <v>0.7015666266622222</v>
+        <v>0.3768867962373333</v>
       </c>
       <c r="R26">
-        <v>6.31409963996</v>
+        <v>3.391981166136</v>
       </c>
       <c r="S26">
-        <v>0.006518226840896002</v>
+        <v>0.005772979154846954</v>
       </c>
       <c r="T26">
-        <v>0.006518226840896002</v>
+        <v>0.005772979154846954</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H27">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I27">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J27">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>81.613078</v>
       </c>
       <c r="O27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q27">
-        <v>1.750618659339556</v>
+        <v>0.8799612751157777</v>
       </c>
       <c r="R27">
-        <v>15.755567934056</v>
+        <v>7.919651476042</v>
       </c>
       <c r="S27">
-        <v>0.01626492638022019</v>
+        <v>0.01347884337958327</v>
       </c>
       <c r="T27">
-        <v>0.01626492638022019</v>
+        <v>0.01347884337958327</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H28">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I28">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J28">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N28">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O28">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P28">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q28">
-        <v>0.3807125724453334</v>
+        <v>0.2800279976603333</v>
       </c>
       <c r="R28">
-        <v>3.426413152008001</v>
+        <v>2.520251978943</v>
       </c>
       <c r="S28">
-        <v>0.003537184943055335</v>
+        <v>0.004289340484745006</v>
       </c>
       <c r="T28">
-        <v>0.003537184943055334</v>
+        <v>0.004289340484745006</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H29">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I29">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J29">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N29">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q29">
-        <v>1.092775736650667</v>
+        <v>0.1775328397178889</v>
       </c>
       <c r="R29">
-        <v>9.834981629855999</v>
+        <v>1.597795557461</v>
       </c>
       <c r="S29">
-        <v>0.01015293468505553</v>
+        <v>0.002719366645964327</v>
       </c>
       <c r="T29">
-        <v>0.01015293468505553</v>
+        <v>0.002719366645964328</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H30">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I30">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J30">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N30">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O30">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P30">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q30">
-        <v>0.2533744221844444</v>
+        <v>0.1323485270194444</v>
       </c>
       <c r="R30">
-        <v>2.28036979966</v>
+        <v>1.191136743175</v>
       </c>
       <c r="S30">
-        <v>0.002354091395904328</v>
+        <v>0.002027254059536797</v>
       </c>
       <c r="T30">
-        <v>0.002354091395904328</v>
+        <v>0.002027254059536797</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H31">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I31">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J31">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N31">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q31">
-        <v>0.3869381991422223</v>
+        <v>0.1443883929558889</v>
       </c>
       <c r="R31">
-        <v>3.48244379228</v>
+        <v>1.299495536603</v>
       </c>
       <c r="S31">
-        <v>0.00359502698612703</v>
+        <v>0.002211675206077777</v>
       </c>
       <c r="T31">
-        <v>0.00359502698612703</v>
+        <v>0.002211675206077777</v>
       </c>
     </row>
   </sheetData>
